--- a/uploads/aaa.xlsx
+++ b/uploads/aaa.xlsx
@@ -43,22 +43,22 @@
     <t>dima@gmail.com</t>
   </si>
   <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>yyyy</t>
+    <t>mutation zzzz</t>
+  </si>
+  <si>
+    <t>mutation  aaaa</t>
+  </si>
+  <si>
+    <t>mutation  dddd</t>
+  </si>
+  <si>
+    <t>mutation  fff</t>
+  </si>
+  <si>
+    <t>mutation  ggg</t>
+  </si>
+  <si>
+    <t>mutation  yyyy</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uploads/aaa.xlsx
+++ b/uploads/aaa.xlsx
@@ -43,28 +43,31 @@
     <t>dima@gmail.com</t>
   </si>
   <si>
-    <t>mutation zzzz</t>
-  </si>
-  <si>
-    <t>mutation  aaaa</t>
-  </si>
-  <si>
-    <t>mutation  dddd</t>
-  </si>
-  <si>
-    <t>mutation  fff</t>
-  </si>
-  <si>
-    <t>mutation  ggg</t>
-  </si>
-  <si>
-    <t>mutation  yyyy</t>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>ggg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +109,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,12 +418,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +483,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -491,7 +494,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -510,5 +513,6 @@
     <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>